--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>585410.5913964822</v>
+        <v>451870.0991908302</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1325027.46779994</v>
+        <v>1208696.173652805</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23569169.45936231</v>
+        <v>23462971.82652422</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4889376.774530204</v>
+        <v>4931133.047031709</v>
       </c>
     </row>
     <row r="11">
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9.626246917180532</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.626246917180532</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8.478798284652612</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.626246917180532</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>13.18456318129115</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>13.18456318129115</v>
       </c>
       <c r="H12" t="n">
-        <v>8.478798284652612</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.626246917180532</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>9.626246917180532</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.626246917180532</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1624,55 +1624,55 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>13.18456318129115</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>14.96885011499904</v>
       </c>
-      <c r="I14" t="n">
+      <c r="X14" t="n">
         <v>14.96885011499904</v>
-      </c>
-      <c r="J14" t="n">
-        <v>14.96885011499904</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>13.18456318129115</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1709,43 +1709,43 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13.18456318129115</v>
+      </c>
+      <c r="T15" t="n">
         <v>14.96885011499904</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>13.18456318129115</v>
-      </c>
-      <c r="R15" t="n">
+      <c r="U15" t="n">
         <v>14.96885011499904</v>
       </c>
-      <c r="S15" t="n">
+      <c r="V15" t="n">
         <v>14.96885011499904</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>25.75359370674562</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,52 +1861,52 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>29.23886660620531</v>
       </c>
-      <c r="I17" t="n">
-        <v>25.75359370674562</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>29.23886660620531</v>
-      </c>
-      <c r="R17" t="n">
-        <v>29.23886660620531</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1937,49 +1937,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>25.75359370674563</v>
+        <v>25.75359370674562</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>29.23886660620531</v>
       </c>
-      <c r="I18" t="n">
+      <c r="S18" t="n">
         <v>29.23886660620531</v>
       </c>
-      <c r="J18" t="n">
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>29.23886660620531</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="R20" t="n">
         <v>25.75359370674563</v>
       </c>
       <c r="S20" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>29.23886660620531</v>
       </c>
       <c r="U20" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>25.75359370674562</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>25.75359370674562</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>59.75657007276242</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="I23" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>48.42971955992661</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
     </row>
     <row r="24">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>54.98378696631089</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>48.42971955992661</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>48.42971955992661</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="C26" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="D26" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>25.90071498191802</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>59.75657007276244</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="W27" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="X27" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
     </row>
     <row r="28">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>48.42971955992661</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2836,22 +2836,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>59.75657007276241</v>
       </c>
     </row>
     <row r="30">
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>48.42971955992661</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="U30" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V30" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>59.75657007276241</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>59.75657007276241</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.42971955992661</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="T32" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3119,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>48.42971955992661</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="G33" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="V33" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>59.75657007276242</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>46.57200689147128</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>17.42191669726542</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3389,16 +3389,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.35754004913036</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="S36" t="n">
-        <v>45.35754004913036</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="T36" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>46.57200689147128</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>52.87466722464953</v>
       </c>
     </row>
     <row r="37">
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>35.24515637863547</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>46.57200689147128</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="U38" t="n">
-        <v>40.01493685131185</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="V38" t="n">
-        <v>40.01493685131185</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>40.01493685131185</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>35.24515637863547</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>40.01493685131185</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>40.01493685131185</v>
+        <v>46.57200689147128</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>40.01493685131185</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22.67612585318098</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>25.74492036010559</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>34.00297636601682</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>25.74492036010559</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>25.74492036010559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>25.74492036010559</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1471212751723977</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3863,31 +3863,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>34.00297636601682</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.74492036010559</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>25.74492036010559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22.67612585318098</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="G44" t="n">
-        <v>25.74492036010559</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>25.74492036010559</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>34.00297636601682</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1471212751723977</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.5290045780086</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>25.74492036010559</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="V45" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="W45" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>34.00297636601682</v>
       </c>
     </row>
     <row r="46">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.78150593419634</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="C11" t="n">
-        <v>28.78150593419634</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="D11" t="n">
-        <v>28.78150593419634</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="E11" t="n">
-        <v>28.78150593419634</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="F11" t="n">
-        <v>28.78150593419634</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="G11" t="n">
-        <v>19.05802419967055</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="H11" t="n">
-        <v>9.334542465144757</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="I11" t="n">
-        <v>9.334542465144757</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="L11" t="n">
-        <v>10.30008420138317</v>
+        <v>16.01666962304898</v>
       </c>
       <c r="M11" t="n">
-        <v>10.30008420138317</v>
+        <v>16.28259082596021</v>
       </c>
       <c r="N11" t="n">
-        <v>19.8300686493919</v>
+        <v>31.10175243980926</v>
       </c>
       <c r="O11" t="n">
-        <v>29.36005309740062</v>
+        <v>45.92091405365831</v>
       </c>
       <c r="P11" t="n">
-        <v>38.50498766872213</v>
+        <v>59.87540045999617</v>
       </c>
       <c r="Q11" t="n">
-        <v>28.78150593419634</v>
+        <v>59.87540045999617</v>
       </c>
       <c r="R11" t="n">
-        <v>28.78150593419634</v>
+        <v>59.87540045999617</v>
       </c>
       <c r="S11" t="n">
-        <v>28.78150593419634</v>
+        <v>59.87540045999617</v>
       </c>
       <c r="T11" t="n">
-        <v>28.78150593419634</v>
+        <v>44.75534983878502</v>
       </c>
       <c r="U11" t="n">
-        <v>28.78150593419634</v>
+        <v>29.63529921757386</v>
       </c>
       <c r="V11" t="n">
-        <v>28.78150593419634</v>
+        <v>14.5152485963627</v>
       </c>
       <c r="W11" t="n">
-        <v>28.78150593419634</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="X11" t="n">
-        <v>28.78150593419634</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.78150593419634</v>
+        <v>1.197508009199924</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.78150593419634</v>
+        <v>14.5152485963627</v>
       </c>
       <c r="C12" t="n">
-        <v>28.78150593419634</v>
+        <v>14.5152485963627</v>
       </c>
       <c r="D12" t="n">
-        <v>28.78150593419634</v>
+        <v>14.5152485963627</v>
       </c>
       <c r="E12" t="n">
-        <v>28.78150593419634</v>
+        <v>14.5152485963627</v>
       </c>
       <c r="F12" t="n">
-        <v>28.78150593419634</v>
+        <v>14.5152485963627</v>
       </c>
       <c r="G12" t="n">
-        <v>28.78150593419634</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="H12" t="n">
-        <v>20.21706322242602</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="I12" t="n">
-        <v>10.49358148790023</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="L12" t="n">
-        <v>9.91503432469595</v>
+        <v>15.41791561844901</v>
       </c>
       <c r="M12" t="n">
-        <v>19.44501877270468</v>
+        <v>30.23707723229806</v>
       </c>
       <c r="N12" t="n">
-        <v>28.9750032207134</v>
+        <v>45.05623884614712</v>
       </c>
       <c r="O12" t="n">
-        <v>38.50498766872213</v>
+        <v>59.87540045999617</v>
       </c>
       <c r="P12" t="n">
-        <v>38.50498766872213</v>
+        <v>59.87540045999617</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.78150593419634</v>
+        <v>44.75534983878502</v>
       </c>
       <c r="R12" t="n">
-        <v>28.78150593419634</v>
+        <v>29.63529921757386</v>
       </c>
       <c r="S12" t="n">
-        <v>28.78150593419634</v>
+        <v>29.63529921757386</v>
       </c>
       <c r="T12" t="n">
-        <v>28.78150593419634</v>
+        <v>29.63529921757386</v>
       </c>
       <c r="U12" t="n">
-        <v>28.78150593419634</v>
+        <v>14.5152485963627</v>
       </c>
       <c r="V12" t="n">
-        <v>28.78150593419634</v>
+        <v>14.5152485963627</v>
       </c>
       <c r="W12" t="n">
-        <v>28.78150593419634</v>
+        <v>14.5152485963627</v>
       </c>
       <c r="X12" t="n">
-        <v>28.78150593419634</v>
+        <v>14.5152485963627</v>
       </c>
       <c r="Y12" t="n">
-        <v>28.78150593419634</v>
+        <v>14.5152485963627</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="W13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7700997533744426</v>
+        <v>1.197508009199924</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.55765987283339</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="C14" t="n">
-        <v>46.55765987283339</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="D14" t="n">
-        <v>46.55765987283339</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="E14" t="n">
-        <v>46.55765987283339</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="F14" t="n">
-        <v>46.55765987283339</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="G14" t="n">
-        <v>46.55765987283339</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="H14" t="n">
-        <v>31.43760925162223</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="I14" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="J14" t="n">
         <v>1.197508009199924</v>
@@ -5284,10 +5284,10 @@
         <v>1.197508009199924</v>
       </c>
       <c r="L14" t="n">
-        <v>16.01666962304898</v>
+        <v>1.463429212111153</v>
       </c>
       <c r="M14" t="n">
-        <v>30.83583123689803</v>
+        <v>16.28259082596021</v>
       </c>
       <c r="N14" t="n">
         <v>31.10175243980926</v>
@@ -5299,16 +5299,16 @@
         <v>59.87540045999617</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.55765987283339</v>
+        <v>59.87540045999617</v>
       </c>
       <c r="R14" t="n">
-        <v>46.55765987283339</v>
+        <v>59.87540045999617</v>
       </c>
       <c r="S14" t="n">
-        <v>46.55765987283339</v>
+        <v>59.87540045999617</v>
       </c>
       <c r="T14" t="n">
-        <v>46.55765987283339</v>
+        <v>59.87540045999617</v>
       </c>
       <c r="U14" t="n">
         <v>46.55765987283339</v>
@@ -5317,13 +5317,13 @@
         <v>46.55765987283339</v>
       </c>
       <c r="W14" t="n">
-        <v>46.55765987283339</v>
+        <v>31.43760925162223</v>
       </c>
       <c r="X14" t="n">
-        <v>46.55765987283339</v>
+        <v>16.31755863041108</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.55765987283339</v>
+        <v>16.31755863041108</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="C15" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="D15" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="E15" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="F15" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="G15" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="H15" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="I15" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="J15" t="n">
         <v>1.197508009199924</v>
@@ -5378,31 +5378,31 @@
         <v>59.87540045999617</v>
       </c>
       <c r="Q15" t="n">
+        <v>59.87540045999617</v>
+      </c>
+      <c r="R15" t="n">
+        <v>59.87540045999617</v>
+      </c>
+      <c r="S15" t="n">
         <v>46.55765987283339</v>
       </c>
-      <c r="R15" t="n">
+      <c r="T15" t="n">
         <v>31.43760925162223</v>
-      </c>
-      <c r="S15" t="n">
-        <v>16.31755863041108</v>
-      </c>
-      <c r="T15" t="n">
-        <v>16.31755863041108</v>
       </c>
       <c r="U15" t="n">
         <v>16.31755863041108</v>
       </c>
       <c r="V15" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="W15" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="X15" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
     </row>
     <row r="16">
@@ -5494,22 +5494,22 @@
         <v>57.88704903854787</v>
       </c>
       <c r="C17" t="n">
-        <v>57.88704903854787</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="D17" t="n">
-        <v>57.88704903854787</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="E17" t="n">
-        <v>57.88704903854787</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F17" t="n">
-        <v>57.88704903854787</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G17" t="n">
-        <v>57.88704903854787</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H17" t="n">
-        <v>28.3528403454112</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I17" t="n">
         <v>2.339109328496424</v>
@@ -5536,22 +5536,22 @@
         <v>116.9554664248212</v>
       </c>
       <c r="Q17" t="n">
+        <v>116.9554664248212</v>
+      </c>
+      <c r="R17" t="n">
+        <v>116.9554664248212</v>
+      </c>
+      <c r="S17" t="n">
+        <v>116.9554664248212</v>
+      </c>
+      <c r="T17" t="n">
+        <v>116.9554664248212</v>
+      </c>
+      <c r="U17" t="n">
         <v>87.42125773168455</v>
       </c>
-      <c r="R17" t="n">
-        <v>57.88704903854787</v>
-      </c>
-      <c r="S17" t="n">
-        <v>57.88704903854787</v>
-      </c>
-      <c r="T17" t="n">
-        <v>57.88704903854787</v>
-      </c>
-      <c r="U17" t="n">
-        <v>57.88704903854787</v>
-      </c>
       <c r="V17" t="n">
-        <v>57.88704903854787</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="W17" t="n">
         <v>57.88704903854787</v>
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>116.9554664248212</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="C18" t="n">
-        <v>116.9554664248212</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="D18" t="n">
-        <v>116.9554664248212</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="E18" t="n">
-        <v>116.9554664248212</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="F18" t="n">
-        <v>116.9554664248212</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="G18" t="n">
-        <v>90.94173540790645</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H18" t="n">
-        <v>61.40752671476977</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I18" t="n">
-        <v>31.8733180216331</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J18" t="n">
         <v>2.339109328496424</v>
@@ -5600,16 +5600,16 @@
         <v>2.339109328496424</v>
       </c>
       <c r="L18" t="n">
-        <v>30.11603260439146</v>
+        <v>16.55951693774551</v>
       </c>
       <c r="M18" t="n">
-        <v>59.06251054453472</v>
+        <v>45.50599487788876</v>
       </c>
       <c r="N18" t="n">
-        <v>88.00898848467797</v>
+        <v>74.45247281803202</v>
       </c>
       <c r="O18" t="n">
-        <v>116.9554664248212</v>
+        <v>103.3989507581753</v>
       </c>
       <c r="P18" t="n">
         <v>116.9554664248212</v>
@@ -5618,28 +5618,28 @@
         <v>116.9554664248212</v>
       </c>
       <c r="R18" t="n">
-        <v>116.9554664248212</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="S18" t="n">
-        <v>116.9554664248212</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="T18" t="n">
-        <v>116.9554664248212</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="U18" t="n">
-        <v>116.9554664248212</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="V18" t="n">
-        <v>116.9554664248212</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="W18" t="n">
-        <v>116.9554664248212</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="X18" t="n">
-        <v>116.9554664248212</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="Y18" t="n">
-        <v>116.9554664248212</v>
+        <v>28.3528403454112</v>
       </c>
     </row>
     <row r="19">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.339109328496424</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="C20" t="n">
-        <v>2.339109328496424</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="D20" t="n">
         <v>2.339109328496424</v>
@@ -5764,7 +5764,7 @@
         <v>60.23206520878293</v>
       </c>
       <c r="N20" t="n">
-        <v>74.05450207834011</v>
+        <v>74.05450207834016</v>
       </c>
       <c r="O20" t="n">
         <v>103.0009800184834</v>
@@ -5773,10 +5773,10 @@
         <v>116.9554664248212</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.9554664248212</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="R20" t="n">
-        <v>90.94173540790645</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="S20" t="n">
         <v>61.40752671476977</v>
@@ -5785,19 +5785,19 @@
         <v>31.8733180216331</v>
       </c>
       <c r="U20" t="n">
-        <v>2.339109328496424</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="V20" t="n">
-        <v>2.339109328496424</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="W20" t="n">
-        <v>2.339109328496424</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="X20" t="n">
-        <v>2.339109328496424</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.339109328496424</v>
+        <v>31.8733180216331</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.339109328496424</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="C21" t="n">
-        <v>2.339109328496424</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="D21" t="n">
-        <v>2.339109328496424</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="E21" t="n">
-        <v>2.339109328496424</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="F21" t="n">
-        <v>2.339109328496424</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="G21" t="n">
-        <v>2.339109328496424</v>
+        <v>57.88704903854787</v>
       </c>
       <c r="H21" t="n">
-        <v>2.339109328496424</v>
+        <v>28.3528403454112</v>
       </c>
       <c r="I21" t="n">
         <v>2.339109328496424</v>
@@ -5837,13 +5837,13 @@
         <v>2.339109328496424</v>
       </c>
       <c r="L21" t="n">
-        <v>30.11603260439146</v>
+        <v>30.11603260439149</v>
       </c>
       <c r="M21" t="n">
-        <v>59.06251054453472</v>
+        <v>59.06251054453475</v>
       </c>
       <c r="N21" t="n">
-        <v>88.00898848467797</v>
+        <v>88.008988484678</v>
       </c>
       <c r="O21" t="n">
         <v>116.9554664248212</v>
@@ -5855,28 +5855,28 @@
         <v>116.9554664248212</v>
       </c>
       <c r="R21" t="n">
-        <v>87.42125773168455</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="S21" t="n">
-        <v>57.88704903854787</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="T21" t="n">
-        <v>57.88704903854787</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="U21" t="n">
-        <v>57.88704903854787</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="V21" t="n">
-        <v>57.88704903854787</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="W21" t="n">
-        <v>28.3528403454112</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="X21" t="n">
-        <v>2.339109328496424</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.339109328496424</v>
+        <v>116.9554664248212</v>
       </c>
     </row>
     <row r="22">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115.4770604650037</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="C23" t="n">
-        <v>115.4770604650037</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="D23" t="n">
-        <v>115.4770604650037</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="E23" t="n">
-        <v>115.4770604650037</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F23" t="n">
-        <v>115.4770604650037</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="G23" t="n">
-        <v>115.4770604650037</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="H23" t="n">
-        <v>115.4770604650037</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I23" t="n">
-        <v>59.93788171115426</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J23" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K23" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L23" t="n">
-        <v>42.67881416896238</v>
+        <v>63.3937731823219</v>
       </c>
       <c r="M23" t="n">
-        <v>97.11276326561017</v>
+        <v>123.0894186197522</v>
       </c>
       <c r="N23" t="n">
-        <v>151.5467123622579</v>
+        <v>190.2545007860043</v>
       </c>
       <c r="O23" t="n">
-        <v>205.9806614589057</v>
+        <v>257.4195829522564</v>
       </c>
       <c r="P23" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q23" t="n">
-        <v>219.9351478652436</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="R23" t="n">
-        <v>219.9351478652436</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="S23" t="n">
-        <v>219.9351478652436</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="T23" t="n">
-        <v>171.0162392188531</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="U23" t="n">
-        <v>171.0162392188531</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4770604650037</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="W23" t="n">
-        <v>115.4770604650037</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="X23" t="n">
-        <v>115.4770604650037</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="Y23" t="n">
-        <v>115.4770604650037</v>
+        <v>134.3164585714254</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59.93788171115426</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="C24" t="n">
-        <v>59.93788171115426</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="D24" t="n">
-        <v>59.93788171115426</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="E24" t="n">
-        <v>59.93788171115426</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="F24" t="n">
-        <v>59.93788171115426</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="G24" t="n">
-        <v>4.398702957304872</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="H24" t="n">
-        <v>4.398702957304872</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="I24" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J24" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K24" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L24" t="n">
-        <v>18.61911056655396</v>
+        <v>69.87882285983801</v>
       </c>
       <c r="M24" t="n">
-        <v>63.52307521519302</v>
+        <v>137.0439050260901</v>
       </c>
       <c r="N24" t="n">
-        <v>117.9570243118408</v>
+        <v>204.2089871923422</v>
       </c>
       <c r="O24" t="n">
-        <v>165.5011987685958</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P24" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q24" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R24" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S24" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T24" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U24" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="V24" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="W24" t="n">
-        <v>171.0162392188531</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="X24" t="n">
-        <v>115.4770604650037</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Y24" t="n">
-        <v>59.93788171115426</v>
+        <v>271.3740693585943</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.4770604650037</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="C26" t="n">
-        <v>59.93788171115426</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="D26" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E26" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F26" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G26" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H26" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I26" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J26" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K26" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L26" t="n">
-        <v>58.83265205395266</v>
+        <v>63.3937731823219</v>
       </c>
       <c r="M26" t="n">
-        <v>113.2666011506005</v>
+        <v>130.558855348574</v>
       </c>
       <c r="N26" t="n">
-        <v>167.7005502472482</v>
+        <v>190.2545007860043</v>
       </c>
       <c r="O26" t="n">
-        <v>205.9806614589057</v>
+        <v>257.4195829522564</v>
       </c>
       <c r="P26" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q26" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R26" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S26" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U26" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="V26" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="W26" t="n">
-        <v>219.9351478652436</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="X26" t="n">
-        <v>219.9351478652436</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="Y26" t="n">
-        <v>164.3959691113942</v>
+        <v>211.0138975679251</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30.56104132287863</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C27" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D27" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E27" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F27" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G27" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H27" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I27" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J27" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K27" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L27" t="n">
-        <v>18.61911056655396</v>
+        <v>19.64788899642097</v>
       </c>
       <c r="M27" t="n">
-        <v>63.52307521519302</v>
+        <v>69.87882285983801</v>
       </c>
       <c r="N27" t="n">
-        <v>117.9570243118408</v>
+        <v>137.0439050260901</v>
       </c>
       <c r="O27" t="n">
-        <v>165.5011987685958</v>
+        <v>204.2089871923422</v>
       </c>
       <c r="P27" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q27" t="n">
-        <v>197.1785775844268</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R27" t="n">
-        <v>141.6393988305774</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S27" t="n">
-        <v>141.6393988305774</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T27" t="n">
-        <v>141.6393988305774</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="U27" t="n">
-        <v>141.6393988305774</v>
+        <v>211.0138975679251</v>
       </c>
       <c r="V27" t="n">
-        <v>141.6393988305774</v>
+        <v>142.4850921743407</v>
       </c>
       <c r="W27" t="n">
-        <v>86.10022007672802</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="X27" t="n">
-        <v>30.56104132287863</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="Y27" t="n">
-        <v>30.56104132287863</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>53.31761160369539</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C29" t="n">
-        <v>53.31761160369539</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D29" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E29" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F29" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G29" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H29" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I29" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J29" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K29" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L29" t="n">
-        <v>58.83265205395266</v>
+        <v>63.3937731823219</v>
       </c>
       <c r="M29" t="n">
-        <v>113.2666011506005</v>
+        <v>123.0894186197522</v>
       </c>
       <c r="N29" t="n">
-        <v>167.7005502472482</v>
+        <v>190.2545007860043</v>
       </c>
       <c r="O29" t="n">
-        <v>205.9806614589057</v>
+        <v>257.4195829522564</v>
       </c>
       <c r="P29" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q29" t="n">
-        <v>164.3959691113942</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R29" t="n">
-        <v>108.8567903575448</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S29" t="n">
-        <v>53.31761160369539</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T29" t="n">
-        <v>53.31761160369539</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="U29" t="n">
-        <v>53.31761160369539</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="V29" t="n">
-        <v>53.31761160369539</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="W29" t="n">
-        <v>53.31761160369539</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="X29" t="n">
-        <v>53.31761160369539</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="Y29" t="n">
-        <v>53.31761160369539</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C30" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D30" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E30" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F30" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G30" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H30" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I30" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J30" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K30" t="n">
-        <v>32.66439690555769</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L30" t="n">
-        <v>87.09834600220547</v>
+        <v>72.59256355342397</v>
       </c>
       <c r="M30" t="n">
-        <v>136.5547208284526</v>
+        <v>139.7576457196761</v>
       </c>
       <c r="N30" t="n">
-        <v>190.9886699251003</v>
+        <v>206.9227278859282</v>
       </c>
       <c r="O30" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="P30" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R30" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S30" t="n">
-        <v>171.0162392188531</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T30" t="n">
-        <v>115.4770604650037</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="U30" t="n">
-        <v>59.93788171115426</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="V30" t="n">
-        <v>4.398702957304872</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="W30" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X30" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.398702957304872</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="C32" t="n">
-        <v>4.398702957304872</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="D32" t="n">
-        <v>4.398702957304872</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="E32" t="n">
-        <v>4.398702957304872</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="F32" t="n">
-        <v>4.398702957304872</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="G32" t="n">
-        <v>4.398702957304872</v>
+        <v>65.78765317784099</v>
       </c>
       <c r="H32" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I32" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J32" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K32" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L32" t="n">
-        <v>58.83265205395266</v>
+        <v>63.3937731823219</v>
       </c>
       <c r="M32" t="n">
-        <v>113.2666011506005</v>
+        <v>130.558855348574</v>
       </c>
       <c r="N32" t="n">
-        <v>167.7005502472482</v>
+        <v>190.2545007860043</v>
       </c>
       <c r="O32" t="n">
-        <v>205.9806614589057</v>
+        <v>257.4195829522564</v>
       </c>
       <c r="P32" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q32" t="n">
-        <v>164.3959691113942</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R32" t="n">
-        <v>108.8567903575448</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S32" t="n">
-        <v>59.93788171115426</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="T32" t="n">
-        <v>4.398702957304872</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="U32" t="n">
-        <v>4.398702957304872</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="V32" t="n">
-        <v>4.398702957304872</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="W32" t="n">
-        <v>4.398702957304872</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="X32" t="n">
-        <v>4.398702957304872</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.398702957304872</v>
+        <v>134.3164585714254</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>164.3959691113942</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="C33" t="n">
-        <v>164.3959691113942</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="D33" t="n">
-        <v>164.3959691113942</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="E33" t="n">
-        <v>164.3959691113942</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="F33" t="n">
-        <v>115.4770604650037</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G33" t="n">
-        <v>59.93788171115426</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H33" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I33" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J33" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K33" t="n">
-        <v>4.398702957304872</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L33" t="n">
-        <v>58.83265205395266</v>
+        <v>72.59256355342397</v>
       </c>
       <c r="M33" t="n">
-        <v>103.7366167025917</v>
+        <v>117.496528202063</v>
       </c>
       <c r="N33" t="n">
-        <v>158.1705657992395</v>
+        <v>184.6616103683151</v>
       </c>
       <c r="O33" t="n">
-        <v>187.1170437393828</v>
+        <v>213.6080883084584</v>
       </c>
       <c r="P33" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="R33" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="S33" t="n">
-        <v>219.9351478652436</v>
+        <v>271.3740693585943</v>
       </c>
       <c r="T33" t="n">
-        <v>219.9351478652436</v>
+        <v>202.8452639650098</v>
       </c>
       <c r="U33" t="n">
-        <v>219.9351478652436</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="V33" t="n">
-        <v>164.3959691113942</v>
+        <v>134.3164585714254</v>
       </c>
       <c r="W33" t="n">
-        <v>164.3959691113942</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="X33" t="n">
-        <v>164.3959691113942</v>
+        <v>73.9562867807563</v>
       </c>
       <c r="Y33" t="n">
-        <v>164.3959691113942</v>
+        <v>73.9562867807563</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="C34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="D34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="E34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="F34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="G34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="H34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="I34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="J34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="K34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="L34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="M34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="N34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="O34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="P34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Q34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="R34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="S34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="T34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="U34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="V34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="W34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="X34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.9351478652436</v>
+        <v>5.427481387171886</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>49.44430022325403</v>
+        <v>51.27240458147831</v>
       </c>
       <c r="C35" t="n">
-        <v>49.44430022325403</v>
+        <v>51.27240458147831</v>
       </c>
       <c r="D35" t="n">
-        <v>49.44430022325403</v>
+        <v>51.27240458147831</v>
       </c>
       <c r="E35" t="n">
-        <v>49.44430022325403</v>
+        <v>51.27240458147831</v>
       </c>
       <c r="F35" t="n">
-        <v>49.44430022325403</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="G35" t="n">
-        <v>49.44430022325403</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="H35" t="n">
-        <v>49.44430022325403</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="I35" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="J35" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="K35" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="L35" t="n">
-        <v>48.53256785256949</v>
+        <v>56.57589393037499</v>
       </c>
       <c r="M35" t="n">
-        <v>93.43653250120855</v>
+        <v>108.921814482778</v>
       </c>
       <c r="N35" t="n">
-        <v>138.3404971498476</v>
+        <v>161.267735035181</v>
       </c>
       <c r="O35" t="n">
-        <v>167.4756737901837</v>
+        <v>197.5441824922603</v>
       </c>
       <c r="P35" t="n">
-        <v>181.4301601965215</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.0756942619012</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="R35" t="n">
-        <v>141.0756942619012</v>
+        <v>158.0899141262248</v>
       </c>
       <c r="S35" t="n">
-        <v>141.0756942619012</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="T35" t="n">
-        <v>141.0756942619012</v>
+        <v>51.27240458147831</v>
       </c>
       <c r="U35" t="n">
-        <v>141.0756942619012</v>
+        <v>51.27240458147831</v>
       </c>
       <c r="V35" t="n">
-        <v>141.0756942619012</v>
+        <v>51.27240458147831</v>
       </c>
       <c r="W35" t="n">
-        <v>141.0756942619012</v>
+        <v>51.27240458147831</v>
       </c>
       <c r="X35" t="n">
-        <v>141.0756942619012</v>
+        <v>51.27240458147831</v>
       </c>
       <c r="Y35" t="n">
-        <v>95.25999724257764</v>
+        <v>51.27240458147831</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.22649885773388</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="C36" t="n">
-        <v>21.22649885773388</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="D36" t="n">
-        <v>21.22649885773388</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="E36" t="n">
-        <v>21.22649885773388</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="F36" t="n">
-        <v>21.22649885773388</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="G36" t="n">
-        <v>21.22649885773388</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="H36" t="n">
-        <v>21.22649885773388</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="I36" t="n">
-        <v>21.22649885773388</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="J36" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="K36" t="n">
-        <v>3.628603203930429</v>
+        <v>32.49566732622478</v>
       </c>
       <c r="L36" t="n">
-        <v>48.53256785256949</v>
+        <v>84.84158787862781</v>
       </c>
       <c r="M36" t="n">
-        <v>93.43653250120855</v>
+        <v>129.7455525272669</v>
       </c>
       <c r="N36" t="n">
-        <v>138.3404971498476</v>
+        <v>182.0914730796699</v>
       </c>
       <c r="O36" t="n">
-        <v>181.4301601965215</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="P36" t="n">
-        <v>181.4301601965215</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6735899157047</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="R36" t="n">
-        <v>112.8578928963811</v>
+        <v>158.0899141262248</v>
       </c>
       <c r="S36" t="n">
-        <v>67.04219587705748</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="T36" t="n">
-        <v>21.22649885773388</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="U36" t="n">
-        <v>21.22649885773388</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="V36" t="n">
-        <v>21.22649885773388</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="W36" t="n">
-        <v>21.22649885773388</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="X36" t="n">
-        <v>21.22649885773388</v>
+        <v>57.63872815034523</v>
       </c>
       <c r="Y36" t="n">
-        <v>21.22649885773388</v>
+        <v>4.229973377971962</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="C37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="D37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="E37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="F37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="G37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="H37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="I37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="J37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="K37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="L37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="M37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="N37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="O37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="P37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="R37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="S37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="T37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="U37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="V37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="W37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="X37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.229973377971962</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>38.8023630073327</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="C38" t="n">
-        <v>38.8023630073327</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="D38" t="n">
-        <v>3.201194948104948</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="E38" t="n">
-        <v>3.201194948104948</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="F38" t="n">
-        <v>3.201194948104948</v>
+        <v>51.27240458147831</v>
       </c>
       <c r="G38" t="n">
-        <v>3.201194948104948</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="H38" t="n">
-        <v>3.201194948104948</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="I38" t="n">
-        <v>3.201194948104948</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="J38" t="n">
-        <v>3.201194948104948</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="K38" t="n">
-        <v>3.201194948104948</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="L38" t="n">
-        <v>27.26089855051342</v>
+        <v>56.57589393037499</v>
       </c>
       <c r="M38" t="n">
-        <v>66.87568603331215</v>
+        <v>108.921814482778</v>
       </c>
       <c r="N38" t="n">
-        <v>106.4904735161109</v>
+        <v>161.267735035181</v>
       </c>
       <c r="O38" t="n">
-        <v>146.1052609989096</v>
+        <v>197.5441824922603</v>
       </c>
       <c r="P38" t="n">
-        <v>160.0597474052474</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="Q38" t="n">
-        <v>160.0597474052474</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="R38" t="n">
-        <v>160.0597474052474</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="S38" t="n">
-        <v>160.0597474052474</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="T38" t="n">
-        <v>160.0597474052474</v>
+        <v>158.0899141262248</v>
       </c>
       <c r="U38" t="n">
-        <v>119.6406192726092</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="V38" t="n">
-        <v>79.22149113997094</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="W38" t="n">
-        <v>79.22149113997094</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="X38" t="n">
-        <v>38.8023630073327</v>
+        <v>104.6811593538516</v>
       </c>
       <c r="Y38" t="n">
-        <v>38.8023630073327</v>
+        <v>104.6811593538516</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79.22149113997094</v>
+        <v>111.0474829227185</v>
       </c>
       <c r="C39" t="n">
-        <v>43.62032308074318</v>
+        <v>111.0474829227185</v>
       </c>
       <c r="D39" t="n">
-        <v>43.62032308074318</v>
+        <v>111.0474829227185</v>
       </c>
       <c r="E39" t="n">
-        <v>3.201194948104948</v>
+        <v>111.0474829227185</v>
       </c>
       <c r="F39" t="n">
-        <v>3.201194948104948</v>
+        <v>57.63872815034523</v>
       </c>
       <c r="G39" t="n">
-        <v>3.201194948104948</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="H39" t="n">
-        <v>3.201194948104948</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="I39" t="n">
-        <v>3.201194948104948</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="J39" t="n">
-        <v>3.201194948104948</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="K39" t="n">
-        <v>3.201194948104948</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="L39" t="n">
-        <v>42.81598243090368</v>
+        <v>32.95638520500974</v>
       </c>
       <c r="M39" t="n">
-        <v>82.43076991370242</v>
+        <v>77.8603498536488</v>
       </c>
       <c r="N39" t="n">
-        <v>122.0455573965012</v>
+        <v>130.2062704060518</v>
       </c>
       <c r="O39" t="n">
-        <v>160.0597474052474</v>
+        <v>159.1527483461951</v>
       </c>
       <c r="P39" t="n">
-        <v>160.0597474052474</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="Q39" t="n">
-        <v>160.0597474052474</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="R39" t="n">
-        <v>160.0597474052474</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="S39" t="n">
-        <v>160.0597474052474</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="T39" t="n">
-        <v>160.0597474052474</v>
+        <v>211.4986688985981</v>
       </c>
       <c r="U39" t="n">
-        <v>119.6406192726092</v>
+        <v>164.4562376950918</v>
       </c>
       <c r="V39" t="n">
-        <v>119.6406192726092</v>
+        <v>164.4562376950918</v>
       </c>
       <c r="W39" t="n">
-        <v>79.22149113997094</v>
+        <v>111.0474829227185</v>
       </c>
       <c r="X39" t="n">
-        <v>79.22149113997094</v>
+        <v>111.0474829227185</v>
       </c>
       <c r="Y39" t="n">
-        <v>79.22149113997094</v>
+        <v>111.0474829227185</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="C40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="D40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="E40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="F40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="G40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="H40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="I40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="J40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="K40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="L40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="M40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="N40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="O40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="P40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="Q40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="R40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="S40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="T40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="U40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="V40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="W40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="X40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
       <c r="Y40" t="n">
-        <v>160.0597474052474</v>
+        <v>4.229973377971962</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>28.06456368952117</v>
+        <v>115.4240062333253</v>
       </c>
       <c r="C41" t="n">
-        <v>2.059593628808447</v>
+        <v>115.4240062333253</v>
       </c>
       <c r="D41" t="n">
-        <v>2.059593628808447</v>
+        <v>115.4240062333253</v>
       </c>
       <c r="E41" t="n">
-        <v>2.059593628808447</v>
+        <v>76.42940953287757</v>
       </c>
       <c r="F41" t="n">
-        <v>2.059593628808447</v>
+        <v>37.43481283242983</v>
       </c>
       <c r="G41" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="H41" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="I41" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="J41" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="K41" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="L41" t="n">
-        <v>12.56278156457095</v>
+        <v>41.30697628478429</v>
       </c>
       <c r="M41" t="n">
-        <v>38.05025272107548</v>
+        <v>79.52558051089312</v>
       </c>
       <c r="N41" t="n">
-        <v>63.53772387758001</v>
+        <v>117.7441847370019</v>
       </c>
       <c r="O41" t="n">
-        <v>89.02519503408455</v>
+        <v>140.4641165274352</v>
       </c>
       <c r="P41" t="n">
-        <v>102.9796814404224</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="Q41" t="n">
-        <v>76.97471137970963</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="R41" t="n">
-        <v>76.97471137970963</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="S41" t="n">
-        <v>76.97471137970963</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="T41" t="n">
-        <v>76.97471137970963</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="U41" t="n">
-        <v>76.97471137970963</v>
+        <v>115.4240062333253</v>
       </c>
       <c r="V41" t="n">
-        <v>76.97471137970963</v>
+        <v>115.4240062333253</v>
       </c>
       <c r="W41" t="n">
-        <v>76.97471137970963</v>
+        <v>115.4240062333253</v>
       </c>
       <c r="X41" t="n">
-        <v>76.97471137970963</v>
+        <v>115.4240062333253</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.96974131899691</v>
+        <v>115.4240062333253</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.21317103818015</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="C42" t="n">
-        <v>2.208200977467435</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="D42" t="n">
-        <v>2.059593628808447</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="E42" t="n">
-        <v>2.059593628808447</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="F42" t="n">
-        <v>2.059593628808447</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="G42" t="n">
-        <v>2.059593628808447</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="H42" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="I42" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="J42" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="K42" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="L42" t="n">
-        <v>16.2800012380575</v>
+        <v>41.30697628478429</v>
       </c>
       <c r="M42" t="n">
-        <v>41.76747239456203</v>
+        <v>79.52558051089312</v>
       </c>
       <c r="N42" t="n">
-        <v>67.25494355106656</v>
+        <v>117.7441847370019</v>
       </c>
       <c r="O42" t="n">
-        <v>92.7424147075711</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="P42" t="n">
-        <v>102.9796814404224</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="Q42" t="n">
-        <v>80.22311115960559</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="R42" t="n">
-        <v>80.22311115960559</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="S42" t="n">
-        <v>80.22311115960559</v>
+        <v>115.4240062333253</v>
       </c>
       <c r="T42" t="n">
-        <v>80.22311115960559</v>
+        <v>76.42940953287757</v>
       </c>
       <c r="U42" t="n">
-        <v>80.22311115960559</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="V42" t="n">
-        <v>80.22311115960559</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="W42" t="n">
-        <v>54.21814109889287</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="X42" t="n">
-        <v>54.21814109889287</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.21317103818015</v>
+        <v>42.0829687591232</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="C43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="D43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="E43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="F43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="G43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="H43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="I43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="J43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="K43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="L43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="M43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="N43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="O43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="P43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="R43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="S43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="T43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="U43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="V43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="W43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="X43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.07450381094661</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="C44" t="n">
-        <v>80.07450381094661</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="D44" t="n">
-        <v>80.07450381094661</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="E44" t="n">
-        <v>80.07450381094661</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="F44" t="n">
-        <v>54.06953375023389</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="G44" t="n">
-        <v>28.06456368952117</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="H44" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="I44" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="J44" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="K44" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="L44" t="n">
-        <v>12.56278156457095</v>
+        <v>25.80830384910873</v>
       </c>
       <c r="M44" t="n">
-        <v>38.05025272107548</v>
+        <v>64.02690807521756</v>
       </c>
       <c r="N44" t="n">
-        <v>63.53772387758001</v>
+        <v>102.2455123013264</v>
       </c>
       <c r="O44" t="n">
-        <v>89.02519503408455</v>
+        <v>140.4641165274352</v>
       </c>
       <c r="P44" t="n">
-        <v>102.9796814404224</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="Q44" t="n">
-        <v>102.9796814404224</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="R44" t="n">
-        <v>102.9796814404224</v>
+        <v>115.4240062333253</v>
       </c>
       <c r="S44" t="n">
-        <v>102.9796814404224</v>
+        <v>76.42940953287757</v>
       </c>
       <c r="T44" t="n">
-        <v>102.9796814404224</v>
+        <v>76.42940953287757</v>
       </c>
       <c r="U44" t="n">
-        <v>102.9796814404224</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="V44" t="n">
-        <v>102.9796814404224</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="W44" t="n">
-        <v>102.9796814404224</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="X44" t="n">
-        <v>102.9796814404224</v>
+        <v>42.0829687591232</v>
       </c>
       <c r="Y44" t="n">
-        <v>102.9796814404224</v>
+        <v>42.0829687591232</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.208200977467435</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="C45" t="n">
-        <v>2.208200977467435</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="D45" t="n">
-        <v>2.208200977467435</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="E45" t="n">
-        <v>2.208200977467435</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="F45" t="n">
-        <v>2.208200977467435</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="G45" t="n">
-        <v>2.208200977467435</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="H45" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="I45" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="J45" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="K45" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="L45" t="n">
-        <v>26.51726797090875</v>
+        <v>17.30877966792454</v>
       </c>
       <c r="M45" t="n">
-        <v>52.00473912741328</v>
+        <v>55.52738389403338</v>
       </c>
       <c r="N45" t="n">
-        <v>77.49221028391781</v>
+        <v>93.74598812014221</v>
       </c>
       <c r="O45" t="n">
-        <v>102.9796814404224</v>
+        <v>122.6924660602855</v>
       </c>
       <c r="P45" t="n">
-        <v>102.9796814404224</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="Q45" t="n">
-        <v>80.22311115960559</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="R45" t="n">
-        <v>80.22311115960559</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="S45" t="n">
-        <v>80.22311115960559</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="T45" t="n">
-        <v>54.21814109889287</v>
+        <v>154.4186029337731</v>
       </c>
       <c r="U45" t="n">
-        <v>54.21814109889287</v>
+        <v>115.4240062333253</v>
       </c>
       <c r="V45" t="n">
-        <v>28.21317103818015</v>
+        <v>76.42940953287757</v>
       </c>
       <c r="W45" t="n">
-        <v>2.208200977467435</v>
+        <v>37.43481283242983</v>
       </c>
       <c r="X45" t="n">
-        <v>2.208200977467435</v>
+        <v>37.43481283242983</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.208200977467435</v>
+        <v>3.088372058675461</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="C46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="D46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="E46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="F46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="G46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="H46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="I46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="J46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="K46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="L46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="M46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="N46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="O46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="P46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="R46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="S46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="T46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="U46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="V46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="W46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="X46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.059593628808447</v>
+        <v>3.088372058675461</v>
       </c>
     </row>
   </sheetData>
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>94.50134181136147</v>
+        <v>105.7199540604335</v>
       </c>
       <c r="N5" t="n">
-        <v>89.21461903306817</v>
+        <v>100.6147601570282</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>42.27423123832551</v>
+        <v>49.69660049230234</v>
       </c>
       <c r="M6" t="n">
-        <v>20.73666047215158</v>
+        <v>29.39821530100204</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>8.890800411909339</v>
       </c>
       <c r="O6" t="n">
-        <v>32.82469745261383</v>
+        <v>40.95804287066213</v>
       </c>
       <c r="P6" t="n">
-        <v>54.90492507792075</v>
+        <v>61.43265182430278</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8692,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L11" t="n">
-        <v>59.6663528062067</v>
+        <v>65.00895600402521</v>
       </c>
       <c r="M11" t="n">
-        <v>8.894863273479075</v>
+        <v>9.163470549146984</v>
       </c>
       <c r="N11" t="n">
-        <v>11.84918509080551</v>
+        <v>17.19178828862402</v>
       </c>
       <c r="O11" t="n">
-        <v>31.42512215134399</v>
+        <v>36.7677253491625</v>
       </c>
       <c r="P11" t="n">
-        <v>78.8095309579023</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8929,16 +8929,16 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>84.27780726850281</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>65.00895600402521</v>
+        <v>50.30871316469408</v>
       </c>
       <c r="M14" t="n">
         <v>23.86371338847812</v>
       </c>
       <c r="N14" t="n">
-        <v>2.491545449292891</v>
+        <v>17.19178828862402</v>
       </c>
       <c r="O14" t="n">
         <v>36.7677253491625</v>
@@ -9248,7 +9248,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L18" t="n">
-        <v>13.69345016832925</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>5.093443300258059</v>
+        <v>18.7868934685873</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9406,16 +9406,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>79.27897249523147</v>
+        <v>79.27897249523153</v>
       </c>
       <c r="M20" t="n">
         <v>38.13372987968438</v>
       </c>
       <c r="N20" t="n">
-        <v>16.18499561762214</v>
+        <v>16.18499561762225</v>
       </c>
       <c r="O20" t="n">
-        <v>51.03774184036877</v>
+        <v>51.03774184036882</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9482,10 +9482,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>40.20975561493427</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L21" t="n">
-        <v>13.69345016832925</v>
+        <v>13.69345016832931</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9643,16 +9643,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
-        <v>88.70688489070042</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>63.87865023978998</v>
+        <v>69.1934950284592</v>
       </c>
       <c r="N23" t="n">
-        <v>57.20672513993588</v>
+        <v>70.06645551327358</v>
       </c>
       <c r="O23" t="n">
-        <v>76.78266220047436</v>
+        <v>89.64239257381206</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9722,19 +9722,19 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>50.7383170337546</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>22.48597729051821</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>18.78555203698156</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="P24" t="n">
-        <v>60.07723026656896</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9880,16 +9880,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
-        <v>105.0238928553371</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>63.87865023978997</v>
+        <v>76.73838061312765</v>
       </c>
       <c r="N26" t="n">
-        <v>57.20672513993588</v>
+        <v>62.52156992860511</v>
       </c>
       <c r="O26" t="n">
-        <v>60.4656542358377</v>
+        <v>89.64239257381206</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9962,16 +9962,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>5.380776984624227</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>18.78555203698156</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="P27" t="n">
-        <v>60.07723026656896</v>
+        <v>72.93696063990666</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10117,16 +10117,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L29" t="n">
-        <v>105.0238928553371</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>63.87865023978997</v>
+        <v>69.1934950284592</v>
       </c>
       <c r="N29" t="n">
-        <v>57.20672513993588</v>
+        <v>70.06645551327358</v>
       </c>
       <c r="O29" t="n">
-        <v>60.4656542358377</v>
+        <v>89.64239257381206</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10193,19 +10193,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L30" t="n">
-        <v>40.61973887616031</v>
+        <v>53.47946924949798</v>
       </c>
       <c r="M30" t="n">
-        <v>4.598394118795987</v>
+        <v>22.48597729051821</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>35.86349851769987</v>
       </c>
       <c r="P30" t="n">
         <v>5.093443300258059</v>
@@ -10351,19 +10351,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>84.27780726850281</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L32" t="n">
-        <v>105.0238928553371</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>63.87865023978997</v>
+        <v>76.73838061312765</v>
       </c>
       <c r="N32" t="n">
-        <v>57.20672513993588</v>
+        <v>62.52156992860511</v>
       </c>
       <c r="O32" t="n">
-        <v>60.4656542358377</v>
+        <v>89.64239257381206</v>
       </c>
       <c r="P32" t="n">
         <v>83.66766412458549</v>
@@ -10433,7 +10433,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L33" t="n">
-        <v>40.61973887616031</v>
+        <v>53.47946924949798</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>38.24304342739018</v>
+        <v>63.44291910847615</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,19 +10588,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L35" t="n">
-        <v>95.39764593815659</v>
+        <v>102.9147731136757</v>
       </c>
       <c r="M35" t="n">
-        <v>54.25240332260944</v>
+        <v>61.7695304981286</v>
       </c>
       <c r="N35" t="n">
-        <v>47.5804782227554</v>
+        <v>55.09760539827451</v>
       </c>
       <c r="O35" t="n">
-        <v>51.22834658803832</v>
+        <v>58.44175145343541</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10667,10 +10667,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>30.9934919589798</v>
+        <v>38.51061913449894</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>14.28604556215215</v>
+        <v>0.4653715947323143</v>
       </c>
       <c r="P36" t="n">
         <v>5.093443300258059</v>
@@ -10828,16 +10828,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>74.34283680054993</v>
+        <v>102.9147731136757</v>
       </c>
       <c r="M38" t="n">
-        <v>48.90980012479093</v>
+        <v>61.7695304981286</v>
       </c>
       <c r="N38" t="n">
-        <v>42.2378750249369</v>
+        <v>55.09760539827451</v>
       </c>
       <c r="O38" t="n">
-        <v>61.81381208547538</v>
+        <v>58.44175145343541</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10904,10 +10904,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L39" t="n">
-        <v>25.65088876116129</v>
+        <v>14.65252951291787</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>9.15930511980104</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>5.093443300258059</v>
+        <v>57.96811052490759</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11065,16 +11065,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>60.64938663222067</v>
+        <v>88.64475662246943</v>
       </c>
       <c r="M41" t="n">
-        <v>34.63978363358467</v>
+        <v>47.49951400692234</v>
       </c>
       <c r="N41" t="n">
-        <v>27.96785853373063</v>
+        <v>40.82758890706825</v>
       </c>
       <c r="O41" t="n">
-        <v>47.54379559426911</v>
+        <v>44.74830128510615</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11141,10 +11141,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>24.24060264329268</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>7.806000259220063</v>
       </c>
       <c r="P42" t="n">
-        <v>15.43411676778458</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11302,16 +11302,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>60.64938663222067</v>
+        <v>72.98953193996886</v>
       </c>
       <c r="M44" t="n">
-        <v>34.63978363358467</v>
+        <v>47.49951400692237</v>
       </c>
       <c r="N44" t="n">
-        <v>27.96785853373063</v>
+        <v>40.82758890706828</v>
       </c>
       <c r="O44" t="n">
-        <v>47.54379559426911</v>
+        <v>60.40352596760675</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11378,10 +11378,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L45" t="n">
-        <v>10.34067346752651</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>5.093443300258059</v>
+        <v>37.14004620277078</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22798,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.2098565259836</v>
+        <v>422.2737470230845</v>
       </c>
       <c r="H5" t="n">
-        <v>349.9597650259403</v>
+        <v>350.6140835793751</v>
       </c>
       <c r="I5" t="n">
-        <v>254.413627538865</v>
+        <v>256.8767659283483</v>
       </c>
       <c r="J5" t="n">
-        <v>103.6577574092157</v>
+        <v>109.080383487535</v>
       </c>
       <c r="K5" t="n">
-        <v>62.01598937483024</v>
+        <v>70.14310019543149</v>
       </c>
       <c r="L5" t="n">
-        <v>18.3845087542864</v>
+        <v>28.46690837553996</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4.934605547775959</v>
+        <v>15.69943554118873</v>
       </c>
       <c r="P5" t="n">
-        <v>56.01237276874355</v>
+        <v>65.19990611497732</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.8562777625268</v>
+        <v>127.7557326813339</v>
       </c>
       <c r="R5" t="n">
-        <v>211.4982239222711</v>
+        <v>215.5115853607868</v>
       </c>
       <c r="S5" t="n">
-        <v>235.9346815086628</v>
+        <v>237.39058621135</v>
       </c>
       <c r="T5" t="n">
-        <v>219.4718503679457</v>
+        <v>219.751531019005</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7962875726458</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0306354769367</v>
+        <v>161.0648199065884</v>
       </c>
       <c r="H6" t="n">
-        <v>137.9016867325838</v>
+        <v>138.2318363557987</v>
       </c>
       <c r="I6" t="n">
-        <v>117.4902810648562</v>
+        <v>118.6672449804954</v>
       </c>
       <c r="J6" t="n">
-        <v>82.93859734111298</v>
+        <v>86.16827628465232</v>
       </c>
       <c r="K6" t="n">
-        <v>13.57083277636242</v>
+        <v>19.09086850656472</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.8266610081867</v>
+        <v>60.19027346688263</v>
       </c>
       <c r="R6" t="n">
-        <v>155.3651088272201</v>
+        <v>157.4875420998046</v>
       </c>
       <c r="S6" t="n">
-        <v>208.3135435403172</v>
+        <v>208.9485043279264</v>
       </c>
       <c r="T6" t="n">
-        <v>230.1584524961191</v>
+        <v>230.2962397366888</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6505853349712</v>
+        <v>249.6528343106062</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.247518043053</v>
+        <v>169.2761771205436</v>
       </c>
       <c r="H7" t="n">
-        <v>167.6944209426916</v>
+        <v>167.9492261952894</v>
       </c>
       <c r="I7" t="n">
-        <v>168.1305865516738</v>
+        <v>168.9924431729352</v>
       </c>
       <c r="J7" t="n">
-        <v>133.20905535072</v>
+        <v>135.2352521293023</v>
       </c>
       <c r="K7" t="n">
-        <v>88.99056004441432</v>
+        <v>92.32022377468078</v>
       </c>
       <c r="L7" t="n">
-        <v>62.96960703121101</v>
+        <v>67.23043024285246</v>
       </c>
       <c r="M7" t="n">
-        <v>59.70650310975205</v>
+        <v>64.19894377493083</v>
       </c>
       <c r="N7" t="n">
-        <v>47.31542685419204</v>
+        <v>51.70104732145147</v>
       </c>
       <c r="O7" t="n">
-        <v>72.58297639552539</v>
+        <v>76.63380673028151</v>
       </c>
       <c r="P7" t="n">
-        <v>91.43798011889523</v>
+        <v>94.904165272844</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.7386590351999</v>
+        <v>155.1384659694319</v>
       </c>
       <c r="R7" t="n">
-        <v>221.644124959155</v>
+        <v>222.9327412979576</v>
       </c>
       <c r="S7" t="n">
-        <v>243.9209403175845</v>
+        <v>244.4203898771245</v>
       </c>
       <c r="T7" t="n">
-        <v>218.1427676199599</v>
+        <v>218.265220041965</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2218597534797</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23272,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>412.0960768955392</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H11" t="n">
-        <v>335.3405737090469</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I11" t="n">
         <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>53.80022950218952</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.58198255587997</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R11" t="n">
         <v>180.8732471227138</v>
@@ -23311,16 +23311,16 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3376759156334</v>
+        <v>202.3688258006344</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7521737158166</v>
+        <v>233.7833236008175</v>
       </c>
       <c r="V11" t="n">
-        <v>313.3044420010231</v>
+        <v>298.3355918860241</v>
       </c>
       <c r="W11" t="n">
-        <v>325.3917254792934</v>
+        <v>312.2071622980022</v>
       </c>
       <c r="X11" t="n">
         <v>348.8168793035129</v>
@@ -23351,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7697824785144</v>
+        <v>147.5852192972233</v>
       </c>
       <c r="H12" t="n">
-        <v>126.9035976473796</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I12" t="n">
-        <v>98.88291117568217</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J12" t="n">
-        <v>48.66746253352334</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.90275766082805</v>
+        <v>7.560154463009539</v>
       </c>
       <c r="R12" t="n">
-        <v>139.1693410830749</v>
+        <v>124.2004909680759</v>
       </c>
       <c r="S12" t="n">
         <v>203.4683135038341</v>
@@ -23393,7 +23393,7 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U12" t="n">
-        <v>249.633423953496</v>
+        <v>234.664573838497</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.5563275970632</v>
+        <v>349.5874774820641</v>
       </c>
       <c r="C14" t="n">
         <v>333.5971194742085</v>
@@ -23512,13 +23512,13 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H14" t="n">
-        <v>329.9979705112284</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I14" t="n">
-        <v>220.6491724957633</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31017767184309</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>55.02366629176935</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R14" t="n">
         <v>180.8732471227138</v>
@@ -23551,16 +23551,16 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7521737158166</v>
+        <v>235.5676105345254</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W14" t="n">
-        <v>325.3917254792934</v>
+        <v>310.4228753642943</v>
       </c>
       <c r="X14" t="n">
-        <v>348.8168793035129</v>
+        <v>333.8480291885139</v>
       </c>
       <c r="Y14" t="n">
         <v>377.9289763951821</v>
@@ -23597,7 +23597,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J15" t="n">
-        <v>43.32485933570483</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,22 +23618,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.34444139671743</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R15" t="n">
-        <v>124.2004909680759</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S15" t="n">
-        <v>188.4994633888351</v>
+        <v>190.283750322543</v>
       </c>
       <c r="T15" t="n">
-        <v>229.1070318577418</v>
+        <v>214.1381817427427</v>
       </c>
       <c r="U15" t="n">
-        <v>249.633423953496</v>
+        <v>234.664573838497</v>
       </c>
       <c r="V15" t="n">
-        <v>249.2999251801724</v>
+        <v>234.3310750651733</v>
       </c>
       <c r="W15" t="n">
         <v>283.2492567629311</v>
@@ -23734,13 +23734,13 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
-        <v>333.5971194742085</v>
+        <v>304.3582528680031</v>
       </c>
       <c r="D17" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E17" t="n">
-        <v>359.9585549362873</v>
+        <v>334.2049612295417</v>
       </c>
       <c r="F17" t="n">
         <v>399.146417573369</v>
@@ -23749,10 +23749,10 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H17" t="n">
-        <v>315.7279540200221</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I17" t="n">
-        <v>209.8644289040167</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
         <v>62.27902778684214</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>38.96936286685519</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R17" t="n">
-        <v>151.6343805165085</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S17" t="n">
         <v>224.8250298051639</v>
@@ -23788,13 +23788,13 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7521737158166</v>
+        <v>219.5133071096113</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>296.1528588730881</v>
       </c>
       <c r="X17" t="n">
         <v>348.8168793035129</v>
@@ -23828,13 +23828,13 @@
         <v>135.0161887717688</v>
       </c>
       <c r="H18" t="n">
-        <v>106.1435293258269</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I18" t="n">
-        <v>79.2702914866574</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J18" t="n">
-        <v>29.05484284449857</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R18" t="n">
-        <v>139.1693410830749</v>
+        <v>109.9304744768696</v>
       </c>
       <c r="S18" t="n">
-        <v>203.4683135038341</v>
+        <v>174.2294468976288</v>
       </c>
       <c r="T18" t="n">
         <v>229.1070318577418</v>
       </c>
       <c r="U18" t="n">
-        <v>249.633423953496</v>
+        <v>220.3945573472907</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23974,7 +23974,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D20" t="n">
-        <v>319.1317556432476</v>
+        <v>289.8928890370423</v>
       </c>
       <c r="E20" t="n">
         <v>359.9585549362873</v>
@@ -23992,7 +23992,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J20" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.2082294730605</v>
+        <v>38.96936286685522</v>
       </c>
       <c r="R20" t="n">
         <v>155.1196534159682</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5861631989586</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T20" t="n">
         <v>188.0988093094281</v>
       </c>
       <c r="U20" t="n">
-        <v>219.5133071096113</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24053,10 +24053,10 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>172.0989423795122</v>
+        <v>142.8600757733069</v>
       </c>
       <c r="E21" t="n">
-        <v>187.4605452976028</v>
+        <v>158.2216786913975</v>
       </c>
       <c r="F21" t="n">
         <v>173.9843481253239</v>
@@ -24065,13 +24065,13 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3823959320322</v>
+        <v>106.1435293258269</v>
       </c>
       <c r="I21" t="n">
-        <v>108.5091580928627</v>
+        <v>82.7555643861171</v>
       </c>
       <c r="J21" t="n">
-        <v>58.29370945070387</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,13 +24092,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.52900457800858</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R21" t="n">
-        <v>109.9304744768696</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S21" t="n">
-        <v>174.2294468976288</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T21" t="n">
         <v>229.1070318577418</v>
@@ -24110,10 +24110,10 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
-        <v>254.0103901567258</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X21" t="n">
-        <v>204.2794700042174</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
         <v>242.8962664135933</v>
@@ -24153,22 +24153,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K22" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L22" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M22" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N22" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O22" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P22" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q22" t="n">
         <v>134.42632090912</v>
@@ -24211,7 +24211,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
-        <v>319.1317556432476</v>
+        <v>259.3751855704852</v>
       </c>
       <c r="E23" t="n">
         <v>359.9585549362873</v>
@@ -24223,13 +24223,13 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H23" t="n">
-        <v>344.9668206262274</v>
+        <v>277.1233032865789</v>
       </c>
       <c r="I23" t="n">
-        <v>180.6342356444515</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J23" t="n">
-        <v>7.295240820531241</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.2082294730605</v>
+        <v>0.3647121334119277</v>
       </c>
       <c r="R23" t="n">
         <v>180.8732471227138</v>
@@ -24259,13 +24259,13 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9079563557068</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U23" t="n">
         <v>248.7521737158166</v>
       </c>
       <c r="V23" t="n">
-        <v>258.3206550347122</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>310.0854590555335</v>
       </c>
     </row>
     <row r="24">
@@ -24290,7 +24290,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
-        <v>172.0989423795122</v>
+        <v>104.2554250398636</v>
       </c>
       <c r="E24" t="n">
         <v>187.4605452976028</v>
@@ -24299,13 +24299,13 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>105.7859955122035</v>
+        <v>101.013212405752</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3823959320322</v>
+        <v>67.53887859238364</v>
       </c>
       <c r="I24" t="n">
-        <v>108.5091580928627</v>
+        <v>40.66564075321413</v>
       </c>
       <c r="J24" t="n">
         <v>58.29370945070387</v>
@@ -24347,13 +24347,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W24" t="n">
-        <v>234.8195372030045</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X24" t="n">
-        <v>175.0492767446521</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.9124794472824</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="25">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>316.1266080371365</v>
+        <v>296.7128102574146</v>
       </c>
       <c r="C26" t="n">
-        <v>278.6133325078976</v>
+        <v>265.7536021345599</v>
       </c>
       <c r="D26" t="n">
-        <v>264.1479686769367</v>
+        <v>251.2882383035991</v>
       </c>
       <c r="E26" t="n">
         <v>359.9585549362873</v>
@@ -24505,13 +24505,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W26" t="n">
-        <v>325.3917254792934</v>
+        <v>265.6351554065309</v>
       </c>
       <c r="X26" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
-        <v>322.9451894288712</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
-        <v>177.9417126333214</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
         <v>172.0989423795122</v>
@@ -24566,10 +24566,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R27" t="n">
-        <v>84.18555411676402</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S27" t="n">
         <v>203.4683135038341</v>
@@ -24578,19 +24578,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U27" t="n">
-        <v>249.633423953496</v>
+        <v>189.8768538807336</v>
       </c>
       <c r="V27" t="n">
-        <v>249.2999251801724</v>
+        <v>181.4564078405238</v>
       </c>
       <c r="W27" t="n">
-        <v>228.2654697966202</v>
+        <v>215.4057394232825</v>
       </c>
       <c r="X27" t="n">
-        <v>175.0492767446521</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
-        <v>242.8962664135933</v>
+        <v>175.0527490739448</v>
       </c>
     </row>
     <row r="28">
@@ -24685,7 +24685,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>270.702036083321</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>13.2244425067496</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R29" t="n">
-        <v>125.8894601564029</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S29" t="n">
-        <v>169.841242838853</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3376759156334</v>
+        <v>149.4941585759848</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7521737158166</v>
+        <v>180.908656376168</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>245.4609246613745</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
@@ -24748,7 +24748,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
-        <v>377.9289763951821</v>
+        <v>318.1724063224197</v>
       </c>
     </row>
     <row r="30">
@@ -24809,19 +24809,19 @@
         <v>139.1693410830749</v>
       </c>
       <c r="S30" t="n">
-        <v>155.0385939439075</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T30" t="n">
-        <v>174.1232448914309</v>
+        <v>161.2635145180932</v>
       </c>
       <c r="U30" t="n">
-        <v>194.6496369871851</v>
+        <v>181.7899066138474</v>
       </c>
       <c r="V30" t="n">
-        <v>194.3161382138615</v>
+        <v>181.4564078405238</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>223.4926866901687</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24922,7 +24922,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D32" t="n">
-        <v>319.1317556432476</v>
+        <v>251.2882383035991</v>
       </c>
       <c r="E32" t="n">
         <v>359.9585549362873</v>
@@ -24934,7 +24934,7 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H32" t="n">
-        <v>344.9668206262274</v>
+        <v>285.210250553465</v>
       </c>
       <c r="I32" t="n">
         <v>235.6180226107624</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>13.2244425067496</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R32" t="n">
-        <v>125.8894601564029</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S32" t="n">
-        <v>176.3953102452373</v>
+        <v>156.9815124655154</v>
       </c>
       <c r="T32" t="n">
-        <v>162.3538889493225</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7521737158166</v>
+        <v>180.908656376168</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25007,13 +25007,13 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F33" t="n">
-        <v>125.5546285653973</v>
+        <v>106.1408307856753</v>
       </c>
       <c r="G33" t="n">
-        <v>105.7859955122035</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H33" t="n">
-        <v>80.39860896572131</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I33" t="n">
         <v>108.5091580928627</v>
@@ -25049,16 +25049,16 @@
         <v>203.4683135038341</v>
       </c>
       <c r="T33" t="n">
-        <v>229.1070318577418</v>
+        <v>161.2635145180932</v>
       </c>
       <c r="U33" t="n">
-        <v>249.633423953496</v>
+        <v>181.7899066138474</v>
       </c>
       <c r="V33" t="n">
-        <v>194.3161382138615</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2492567629311</v>
+        <v>223.4926866901687</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>319.1987875479328</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
         <v>333.5971194742085</v>
@@ -25165,7 +25165,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
-        <v>399.146417573369</v>
+        <v>352.5744106818977</v>
       </c>
       <c r="G35" t="n">
         <v>421.7223238127198</v>
@@ -25174,10 +25174,10 @@
         <v>344.9668206262274</v>
       </c>
       <c r="I35" t="n">
-        <v>190.260482561632</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J35" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>28.25730819778652</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R35" t="n">
-        <v>180.8732471227138</v>
+        <v>127.9985798980643</v>
       </c>
       <c r="S35" t="n">
-        <v>224.8250298051639</v>
+        <v>171.9503625805144</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3376759156334</v>
+        <v>164.4630086909839</v>
       </c>
       <c r="U35" t="n">
         <v>248.7521737158166</v>
@@ -25222,7 +25222,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>332.5714363460518</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="36">
@@ -25256,7 +25256,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J36" t="n">
-        <v>40.87179275343847</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,16 +25277,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R36" t="n">
-        <v>93.81180103394459</v>
+        <v>86.2946738584254</v>
       </c>
       <c r="S36" t="n">
-        <v>158.1107734547038</v>
+        <v>150.5936462791846</v>
       </c>
       <c r="T36" t="n">
-        <v>183.7494918086114</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U36" t="n">
         <v>249.633423953496</v>
@@ -25298,10 +25298,10 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X36" t="n">
-        <v>230.033063710963</v>
+        <v>183.4610568194917</v>
       </c>
       <c r="Y36" t="n">
-        <v>242.8962664135933</v>
+        <v>190.0215991889438</v>
       </c>
     </row>
     <row r="37">
@@ -25338,22 +25338,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K37" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L37" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M37" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N37" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O37" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P37" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q37" t="n">
         <v>134.42632090912</v>
@@ -25396,16 +25396,16 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
-        <v>283.8865992646122</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>346.2717503487195</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7223238127198</v>
+        <v>375.1503169212485</v>
       </c>
       <c r="H38" t="n">
         <v>344.9668206262274</v>
@@ -25414,7 +25414,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J38" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R38" t="n">
         <v>180.8732471227138</v>
@@ -25444,19 +25444,19 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3376759156334</v>
+        <v>164.4630086909839</v>
       </c>
       <c r="U38" t="n">
-        <v>208.7372368645047</v>
+        <v>195.8775064911671</v>
       </c>
       <c r="V38" t="n">
-        <v>273.2895051497113</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>308.801942452201</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25472,19 +25472,19 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>168.5972712366039</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>147.445608446291</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>173.9843481253239</v>
+        <v>121.1096809006744</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7697824785144</v>
+        <v>107.8951152538649</v>
       </c>
       <c r="H39" t="n">
         <v>135.3823959320322</v>
@@ -25493,7 +25493,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J39" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,10 +25514,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R39" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S39" t="n">
         <v>203.4683135038341</v>
@@ -25526,13 +25526,13 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U39" t="n">
-        <v>209.6184871021842</v>
+        <v>203.0614170620248</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>243.2343199116193</v>
+        <v>230.3745895382816</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
@@ -25575,22 +25575,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K40" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L40" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M40" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N40" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O40" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P40" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q40" t="n">
         <v>134.42632090912</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>341.8802017438822</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>307.8521991141029</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E41" t="n">
-        <v>359.9585549362873</v>
+        <v>321.3539042028441</v>
       </c>
       <c r="F41" t="n">
-        <v>399.146417573369</v>
+        <v>360.5417668399258</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7223238127198</v>
+        <v>387.719347446703</v>
       </c>
       <c r="H41" t="n">
         <v>344.9668206262274</v>
@@ -25651,7 +25651,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J41" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>42.46330911295494</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R41" t="n">
         <v>180.8732471227138</v>
@@ -25684,7 +25684,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7521737158166</v>
+        <v>210.1475229823733</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>352.1840560350765</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25709,10 +25709,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>178.0975072551338</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
-        <v>171.9518211043398</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
         <v>187.4605452976028</v>
@@ -25724,13 +25724,13 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H42" t="n">
-        <v>135.3823959320322</v>
+        <v>96.77774519858895</v>
       </c>
       <c r="I42" t="n">
         <v>108.5091580928627</v>
       </c>
       <c r="J42" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R42" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S42" t="n">
-        <v>203.4683135038341</v>
+        <v>164.8636627703909</v>
       </c>
       <c r="T42" t="n">
-        <v>229.1070318577418</v>
+        <v>190.5023811242985</v>
       </c>
       <c r="U42" t="n">
-        <v>249.633423953496</v>
+        <v>215.6304475874792</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>257.5043364028255</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>217.1513460534877</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25812,22 +25812,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K43" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L43" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M43" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N43" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O43" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P43" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q43" t="n">
         <v>134.42632090912</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341.8802017438822</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
@@ -25876,19 +25876,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>373.4014972132634</v>
+        <v>360.5417668399258</v>
       </c>
       <c r="G44" t="n">
-        <v>395.9774034526142</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H44" t="n">
-        <v>319.2219002661218</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I44" t="n">
         <v>235.6180226107624</v>
       </c>
       <c r="J44" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.20822947306053</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R44" t="n">
-        <v>180.8732471227138</v>
+        <v>142.2685963892705</v>
       </c>
       <c r="S44" t="n">
-        <v>224.8250298051639</v>
+        <v>186.2203790717207</v>
       </c>
       <c r="T44" t="n">
         <v>217.3376759156334</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7521737158166</v>
+        <v>214.7491973497998</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25961,13 +25961,13 @@
         <v>160.7697824785144</v>
       </c>
       <c r="H45" t="n">
-        <v>135.2352746568598</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I45" t="n">
         <v>108.5091580928627</v>
       </c>
       <c r="J45" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,31 +25988,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R45" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S45" t="n">
         <v>203.4683135038341</v>
       </c>
       <c r="T45" t="n">
-        <v>203.3621114976362</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U45" t="n">
-        <v>249.633423953496</v>
+        <v>211.0287732200528</v>
       </c>
       <c r="V45" t="n">
-        <v>223.5550048200668</v>
+        <v>210.6952744467291</v>
       </c>
       <c r="W45" t="n">
-        <v>257.5043364028255</v>
+        <v>244.6446060294878</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
-        <v>242.8962664135933</v>
+        <v>208.8932900475765</v>
       </c>
     </row>
     <row r="46">
@@ -26049,22 +26049,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K46" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L46" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M46" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N46" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O46" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P46" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q46" t="n">
         <v>134.42632090912</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>378095.341205331</v>
+        <v>370936.2831178693</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>421005.1775598978</v>
+        <v>424609.1630629732</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>434365.9921500223</v>
+        <v>434365.9921500221</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>434365.9921500221</v>
+        <v>434365.9921500222</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>452305.9907260599</v>
+        <v>461343.9294592299</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>452305.9907260597</v>
+        <v>461343.9294592299</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>452305.9907260598</v>
+        <v>461343.9294592298</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>452305.9907260599</v>
+        <v>461343.9294592299</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>445540.5743960078</v>
+        <v>450823.6816532679</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>441836.7113546051</v>
+        <v>450823.6816532681</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>431977.0785574178</v>
+        <v>440859.0032156383</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>431977.0785574178</v>
+        <v>440859.0032156383</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>128777.224093778</v>
       </c>
       <c r="C2" t="n">
-        <v>134677.8492186443</v>
+        <v>131718.9585568889</v>
       </c>
       <c r="D2" t="n">
         <v>136034.206753663</v>
       </c>
       <c r="E2" t="n">
-        <v>153180.1949052237</v>
+        <v>154381.7055469246</v>
       </c>
       <c r="F2" t="n">
-        <v>154381.7055469247</v>
+        <v>154381.7055469246</v>
       </c>
       <c r="G2" t="n">
         <v>157590.923232871</v>
@@ -26334,28 +26334,28 @@
         <v>157590.923232871</v>
       </c>
       <c r="I2" t="n">
-        <v>163380.7591306672</v>
+        <v>166272.8142432907</v>
       </c>
       <c r="J2" t="n">
-        <v>163380.7591306672</v>
+        <v>166272.8142432907</v>
       </c>
       <c r="K2" t="n">
-        <v>163380.7591306671</v>
+        <v>166272.8142432907</v>
       </c>
       <c r="L2" t="n">
-        <v>163380.7591306672</v>
+        <v>166272.8142432907</v>
       </c>
       <c r="M2" t="n">
-        <v>161215.8897435197</v>
+        <v>162906.4342144423</v>
       </c>
       <c r="N2" t="n">
-        <v>160014.3791018188</v>
+        <v>162906.4342144422</v>
       </c>
       <c r="O2" t="n">
-        <v>156805.1614158725</v>
+        <v>159697.2165284961</v>
       </c>
       <c r="P2" t="n">
-        <v>156805.1614158725</v>
+        <v>159697.216528496</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>300331.6078316385</v>
       </c>
       <c r="C3" t="n">
-        <v>28860.04895093618</v>
+        <v>14388.06885871441</v>
       </c>
       <c r="D3" t="n">
-        <v>6239.192452337453</v>
+        <v>19849.97560315418</v>
       </c>
       <c r="E3" t="n">
-        <v>94452.89618648635</v>
+        <v>96048.07996408457</v>
       </c>
       <c r="F3" t="n">
-        <v>1530.794723858147</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>3911.197469992269</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6846.114967079638</v>
+        <v>10265.78732768797</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18153.55411910295</v>
+        <v>18153.55411910296</v>
       </c>
       <c r="C4" t="n">
-        <v>16591.64067107515</v>
+        <v>17374.86804411461</v>
       </c>
       <c r="D4" t="n">
-        <v>16271.48943740879</v>
+        <v>16271.4894374088</v>
       </c>
       <c r="E4" t="n">
-        <v>9844.26120904922</v>
+        <v>10227.01048284707</v>
       </c>
       <c r="F4" t="n">
         <v>10227.01048284707</v>
@@ -26438,28 +26438,28 @@
         <v>11379.9638164747</v>
       </c>
       <c r="I4" t="n">
-        <v>13797.47885532947</v>
+        <v>15081.85105107616</v>
       </c>
       <c r="J4" t="n">
-        <v>13797.47885532947</v>
+        <v>15081.85105107616</v>
       </c>
       <c r="K4" t="n">
-        <v>13797.47885532947</v>
+        <v>15081.85105107616</v>
       </c>
       <c r="L4" t="n">
-        <v>13797.47885532947</v>
+        <v>15081.85105107616</v>
       </c>
       <c r="M4" t="n">
-        <v>12836.05248550039</v>
+        <v>13586.82943461481</v>
       </c>
       <c r="N4" t="n">
-        <v>12353.42567337532</v>
+        <v>13586.82943461481</v>
       </c>
       <c r="O4" t="n">
-        <v>11097.66862960937</v>
+        <v>12226.02675040662</v>
       </c>
       <c r="P4" t="n">
-        <v>11097.66862960937</v>
+        <v>12226.02675040663</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>40422.05903150925</v>
       </c>
       <c r="C5" t="n">
-        <v>41112.97456555201</v>
+        <v>40766.51237239799</v>
       </c>
       <c r="D5" t="n">
         <v>41271.79307559616</v>
       </c>
       <c r="E5" t="n">
-        <v>10714.41839896787</v>
+        <v>11039.24867339523</v>
       </c>
       <c r="F5" t="n">
         <v>11039.24867339523</v>
@@ -26490,28 +26490,28 @@
         <v>11906.86567606057</v>
       </c>
       <c r="I5" t="n">
-        <v>13472.15683395499</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="J5" t="n">
-        <v>13472.15683395499</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="K5" t="n">
-        <v>13472.15683395499</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="L5" t="n">
-        <v>13472.15683395499</v>
+        <v>14254.02844065392</v>
       </c>
       <c r="M5" t="n">
-        <v>12886.88102139041</v>
+        <v>13343.92235366198</v>
       </c>
       <c r="N5" t="n">
-        <v>12562.05074696305</v>
+        <v>13343.92235366198</v>
       </c>
       <c r="O5" t="n">
-        <v>11694.43374429771</v>
+        <v>12476.30535099664</v>
       </c>
       <c r="P5" t="n">
-        <v>11694.43374429771</v>
+        <v>12476.30535099664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230129.9968884727</v>
+        <v>-247172.3845763881</v>
       </c>
       <c r="C6" t="n">
-        <v>48113.18503108101</v>
+        <v>42301.94972338395</v>
       </c>
       <c r="D6" t="n">
-        <v>72251.73178832064</v>
+        <v>41980.50740537193</v>
       </c>
       <c r="E6" t="n">
-        <v>38168.61911072027</v>
+        <v>21372.58302569011</v>
       </c>
       <c r="F6" t="n">
-        <v>131584.6516668242</v>
+        <v>117420.6629897747</v>
       </c>
       <c r="G6" t="n">
-        <v>130392.8962703435</v>
+        <v>114867.019063433</v>
       </c>
       <c r="H6" t="n">
-        <v>134304.0937403357</v>
+        <v>118778.2165334252</v>
       </c>
       <c r="I6" t="n">
-        <v>129265.0084743031</v>
+        <v>111602.2118490896</v>
       </c>
       <c r="J6" t="n">
-        <v>136111.1234413827</v>
+        <v>121867.9991767775</v>
       </c>
       <c r="K6" t="n">
-        <v>136111.1234413827</v>
+        <v>121867.9991767776</v>
       </c>
       <c r="L6" t="n">
-        <v>136111.1234413827</v>
+        <v>121867.9991767775</v>
       </c>
       <c r="M6" t="n">
-        <v>135492.956236629</v>
+        <v>120729.5689551272</v>
       </c>
       <c r="N6" t="n">
-        <v>135098.9026814804</v>
+        <v>120729.5689551271</v>
       </c>
       <c r="O6" t="n">
-        <v>134013.0590419654</v>
+        <v>119579.8647620573</v>
       </c>
       <c r="P6" t="n">
-        <v>134013.0590419654</v>
+        <v>119579.8647620573</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>343.3658057592666</v>
+        <v>327.4730446054125</v>
       </c>
       <c r="D3" t="n">
         <v>350.6510585135856</v>
@@ -26755,7 +26755,7 @@
         <v>464.6395681836371</v>
       </c>
       <c r="H3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
       <c r="I3" t="n">
         <v>464.6395681836371</v>
@@ -26770,16 +26770,16 @@
         <v>464.6395681836371</v>
       </c>
       <c r="M3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="N3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="O3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="P3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.626246917180532</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="F4" t="n">
         <v>14.96885011499904</v>
@@ -26810,28 +26810,28 @@
         <v>29.23886660620531</v>
       </c>
       <c r="I4" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="J4" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="K4" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="L4" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="M4" t="n">
-        <v>45.35754004913036</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="N4" t="n">
-        <v>40.01493685131185</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="O4" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="P4" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>31.69337312122769</v>
+        <v>15.80061196737368</v>
       </c>
       <c r="D3" t="n">
-        <v>7.285252754319117</v>
+        <v>23.17801390817313</v>
       </c>
       <c r="E3" t="n">
         <v>113.9885096700515</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.626246917180532</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="F4" t="n">
-        <v>5.34260319781851</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>14.27001649120626</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.626246917180532</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="N4" t="n">
-        <v>5.34260319781851</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>14.27001649120626</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.380365048278458</v>
+        <v>1.316474551177537</v>
       </c>
       <c r="H5" t="n">
-        <v>14.13666355068176</v>
+        <v>13.48234499724695</v>
       </c>
       <c r="I5" t="n">
-        <v>53.21652352375528</v>
+        <v>50.75338513427203</v>
       </c>
       <c r="J5" t="n">
-        <v>117.1567580163238</v>
+        <v>111.7341319380046</v>
       </c>
       <c r="K5" t="n">
-        <v>175.587610509951</v>
+        <v>167.4604996893497</v>
       </c>
       <c r="L5" t="n">
-        <v>217.8319573562028</v>
+        <v>207.7495577349493</v>
       </c>
       <c r="M5" t="n">
-        <v>242.3800242835249</v>
+        <v>231.1614120344528</v>
       </c>
       <c r="N5" t="n">
-        <v>246.3019864769461</v>
+        <v>234.901845352986</v>
       </c>
       <c r="O5" t="n">
-        <v>232.5759815281271</v>
+        <v>221.8111515347144</v>
       </c>
       <c r="P5" t="n">
-        <v>198.4982193987527</v>
+        <v>189.3106860525189</v>
       </c>
       <c r="Q5" t="n">
-        <v>149.0638961072804</v>
+        <v>142.1644411884733</v>
       </c>
       <c r="R5" t="n">
-        <v>86.70935596392172</v>
+        <v>82.69599452540601</v>
       </c>
       <c r="S5" t="n">
-        <v>31.45506853764538</v>
+        <v>29.99916383495815</v>
       </c>
       <c r="T5" t="n">
-        <v>6.042547998838951</v>
+        <v>5.76286734777967</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.1053179640942029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7385604123878564</v>
+        <v>0.7043759827361703</v>
       </c>
       <c r="H6" t="n">
-        <v>7.132938719640614</v>
+        <v>6.802789096425646</v>
       </c>
       <c r="I6" t="n">
-        <v>25.42850542651172</v>
+        <v>24.25154151087253</v>
       </c>
       <c r="J6" t="n">
-        <v>69.77776247038078</v>
+        <v>66.54808352684144</v>
       </c>
       <c r="K6" t="n">
-        <v>119.2613101003671</v>
+        <v>113.7412743701648</v>
       </c>
       <c r="L6" t="n">
-        <v>160.3615491897405</v>
+        <v>152.9391799357637</v>
       </c>
       <c r="M6" t="n">
-        <v>187.1343641388002</v>
+        <v>178.4728093099498</v>
       </c>
       <c r="N6" t="n">
-        <v>192.087253921875</v>
+        <v>183.1964535099656</v>
       </c>
       <c r="O6" t="n">
-        <v>175.7223100473861</v>
+        <v>167.5889646293379</v>
       </c>
       <c r="P6" t="n">
-        <v>141.0326457655372</v>
+        <v>134.5049190191552</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.27658878129901</v>
+        <v>89.91297632260309</v>
       </c>
       <c r="R6" t="n">
-        <v>45.85553156913377</v>
+        <v>43.73309829654926</v>
       </c>
       <c r="S6" t="n">
-        <v>13.71843573009899</v>
+        <v>13.08347494248982</v>
       </c>
       <c r="T6" t="n">
-        <v>2.976916749931753</v>
+        <v>2.839129509362019</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04858950081499057</v>
+        <v>0.04634052518001122</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6191842398937593</v>
+        <v>0.5905251624032027</v>
       </c>
       <c r="H7" t="n">
-        <v>5.505110787419063</v>
+        <v>5.250305534821207</v>
       </c>
       <c r="I7" t="n">
-        <v>18.62055877789597</v>
+        <v>17.75870215663451</v>
       </c>
       <c r="J7" t="n">
-        <v>43.77632576048878</v>
+        <v>41.75012898190644</v>
       </c>
       <c r="K7" t="n">
-        <v>71.93795078038401</v>
+        <v>68.60828705011755</v>
       </c>
       <c r="L7" t="n">
-        <v>92.05580962929582</v>
+        <v>87.79498641765437</v>
       </c>
       <c r="M7" t="n">
-        <v>97.05994407716446</v>
+        <v>92.56750341198568</v>
       </c>
       <c r="N7" t="n">
-        <v>94.75207554665143</v>
+        <v>90.366455079392</v>
       </c>
       <c r="O7" t="n">
-        <v>87.51887783516521</v>
+        <v>83.4680475004091</v>
       </c>
       <c r="P7" t="n">
-        <v>74.88751934133246</v>
+        <v>71.42133418738369</v>
       </c>
       <c r="Q7" t="n">
-        <v>51.84823666964925</v>
+        <v>49.44842973541729</v>
       </c>
       <c r="R7" t="n">
-        <v>27.84077500467757</v>
+        <v>26.55215866587491</v>
       </c>
       <c r="S7" t="n">
-        <v>10.7906926170576</v>
+        <v>10.29124305751763</v>
       </c>
       <c r="T7" t="n">
-        <v>2.645605388636971</v>
+        <v>2.523152966631866</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0322104634038111</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31846,16 +31846,16 @@
         <v>161.3833488850657</v>
       </c>
       <c r="L12" t="n">
-        <v>211.8730880758655</v>
+        <v>216.9998285182166</v>
       </c>
       <c r="M12" t="n">
-        <v>217.4972715281324</v>
+        <v>222.8398747259509</v>
       </c>
       <c r="N12" t="n">
-        <v>201.7135008390555</v>
+        <v>207.056104036874</v>
       </c>
       <c r="O12" t="n">
-        <v>218.1732544171805</v>
+        <v>223.515857614999</v>
       </c>
       <c r="P12" t="n">
         <v>190.8441275431999</v>
@@ -32466,7 +32466,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H20" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I20" t="n">
         <v>72.01212845185798</v>
@@ -32478,22 +32478,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L20" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M20" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N20" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O20" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P20" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R20" t="n">
         <v>117.334332763479</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H21" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I21" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J21" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K21" t="n">
         <v>161.3833488850657</v>
@@ -32575,16 +32575,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R21" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S21" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T21" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,16 +32624,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H22" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I22" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J22" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K22" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L22" t="n">
         <v>124.569106525823</v>
@@ -32651,10 +32651,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R22" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S22" t="n">
         <v>14.60186970832839</v>
@@ -32663,7 +32663,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,7 +32800,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N24" t="n">
-        <v>247.0710408881859</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O24" t="n">
         <v>237.7858741062053</v>
@@ -33037,7 +33037,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N27" t="n">
-        <v>247.0710408881859</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O27" t="n">
         <v>237.7858741062053</v>
@@ -33274,7 +33274,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N30" t="n">
-        <v>247.0710408881859</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O30" t="n">
         <v>237.7858741062053</v>
@@ -33511,7 +33511,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N33" t="n">
-        <v>247.0710408881859</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O33" t="n">
         <v>237.7858741062053</v>
@@ -33651,7 +33651,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H35" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I35" t="n">
         <v>72.01212845185798</v>
@@ -33663,22 +33663,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L35" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M35" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N35" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O35" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P35" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R35" t="n">
         <v>117.334332763479</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H36" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I36" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J36" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K36" t="n">
         <v>161.3833488850657</v>
@@ -33748,7 +33748,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N36" t="n">
-        <v>237.4447939710053</v>
+        <v>244.9619211465245</v>
       </c>
       <c r="O36" t="n">
         <v>237.7858741062053</v>
@@ -33760,16 +33760,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R36" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S36" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T36" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,16 +33809,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H37" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I37" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J37" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K37" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L37" t="n">
         <v>124.569106525823</v>
@@ -33836,10 +33836,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R37" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S37" t="n">
         <v>14.60186970832839</v>
@@ -33848,7 +33848,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H38" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I38" t="n">
         <v>72.01212845185798</v>
@@ -33900,22 +33900,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L38" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M38" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N38" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O38" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P38" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R38" t="n">
         <v>117.334332763479</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H39" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I39" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J39" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K39" t="n">
         <v>161.3833488850657</v>
@@ -33982,10 +33982,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8859614622637</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N39" t="n">
-        <v>232.1021907731868</v>
+        <v>244.9619211465245</v>
       </c>
       <c r="O39" t="n">
         <v>237.7858741062053</v>
@@ -33997,16 +33997,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R39" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S39" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T39" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,16 +34046,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H40" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I40" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J40" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K40" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L40" t="n">
         <v>124.569106525823</v>
@@ -34073,10 +34073,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R40" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S40" t="n">
         <v>14.60186970832839</v>
@@ -34085,7 +34085,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H41" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I41" t="n">
         <v>72.01212845185798</v>
@@ -34137,22 +34137,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L41" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M41" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N41" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O41" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P41" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R41" t="n">
         <v>117.334332763479</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H42" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I42" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J42" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K42" t="n">
         <v>161.3833488850657</v>
@@ -34219,13 +34219,13 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M42" t="n">
-        <v>233.6159449710574</v>
+        <v>246.4756753443951</v>
       </c>
       <c r="N42" t="n">
-        <v>217.8321742819806</v>
+        <v>230.6919046553182</v>
       </c>
       <c r="O42" t="n">
-        <v>234.2919278601056</v>
+        <v>237.7858741062053</v>
       </c>
       <c r="P42" t="n">
         <v>190.8441275431999</v>
@@ -34234,16 +34234,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R42" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S42" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T42" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,16 +34283,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H43" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I43" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J43" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K43" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L43" t="n">
         <v>124.569106525823</v>
@@ -34310,10 +34310,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R43" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S43" t="n">
         <v>14.60186970832839</v>
@@ -34322,7 +34322,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H44" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I44" t="n">
         <v>72.01212845185798</v>
@@ -34374,22 +34374,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L44" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M44" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N44" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O44" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P44" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R44" t="n">
         <v>117.334332763479</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H45" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I45" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J45" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K45" t="n">
         <v>161.3833488850657</v>
@@ -34456,13 +34456,13 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M45" t="n">
-        <v>233.6159449710574</v>
+        <v>246.4756753443951</v>
       </c>
       <c r="N45" t="n">
-        <v>217.8321742819806</v>
+        <v>230.6919046553182</v>
       </c>
       <c r="O45" t="n">
-        <v>234.2919278601056</v>
+        <v>237.7858741062053</v>
       </c>
       <c r="P45" t="n">
         <v>190.8441275431999</v>
@@ -34471,16 +34471,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R45" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S45" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T45" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,16 +34520,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H46" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I46" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J46" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K46" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L46" t="n">
         <v>124.569106525823</v>
@@ -34547,10 +34547,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R46" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S46" t="n">
         <v>14.60186970832839</v>
@@ -34559,7 +34559,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.626246917180532</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.2686072756679088</v>
       </c>
       <c r="N11" t="n">
-        <v>9.626246917180532</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="O11" t="n">
-        <v>9.626246917180532</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="P11" t="n">
-        <v>9.237307647799502</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>9.237307647799504</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M12" t="n">
-        <v>9.626246917180532</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="N12" t="n">
-        <v>9.626246917180532</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="O12" t="n">
-        <v>9.626246917180532</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>14.96885011499904</v>
+        <v>0.2686072756679088</v>
       </c>
       <c r="M14" t="n">
         <v>14.96885011499904</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2686072756679088</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="O14" t="n">
         <v>14.96885011499904</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>28.05749825847984</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M18" t="n">
         <v>29.23886660620531</v>
@@ -35980,7 +35980,7 @@
         <v>29.23886660620531</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>13.69345016832924</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36132,13 +36132,13 @@
         <v>29.23886660620531</v>
       </c>
       <c r="N20" t="n">
-        <v>13.96205744399715</v>
+        <v>13.96205744399721</v>
       </c>
       <c r="O20" t="n">
         <v>29.23886660620531</v>
       </c>
       <c r="P20" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>28.05749825847984</v>
+        <v>28.05749825847987</v>
       </c>
       <c r="M21" t="n">
         <v>29.23886660620531</v>
@@ -36214,7 +36214,7 @@
         <v>29.23886660620531</v>
       </c>
       <c r="O21" t="n">
-        <v>29.23886660620531</v>
+        <v>29.23886660620528</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>38.66677900167426</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M23" t="n">
-        <v>54.98378696631089</v>
+        <v>60.29863175498012</v>
       </c>
       <c r="N23" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O23" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P23" t="n">
         <v>14.09544081448269</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>14.36404809015059</v>
+        <v>65.10236512390519</v>
       </c>
       <c r="M24" t="n">
-        <v>45.35754004913036</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N24" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O24" t="n">
-        <v>48.02441864318687</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P24" t="n">
-        <v>54.98378696631089</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>54.98378696631089</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M26" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N26" t="n">
-        <v>54.98378696631089</v>
+        <v>60.29863175498013</v>
       </c>
       <c r="O26" t="n">
-        <v>38.66677900167424</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P26" t="n">
         <v>14.09544081448269</v>
@@ -36682,16 +36682,16 @@
         <v>14.36404809015059</v>
       </c>
       <c r="M27" t="n">
-        <v>45.35754004913036</v>
+        <v>50.73831703375459</v>
       </c>
       <c r="N27" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O27" t="n">
-        <v>48.02441864318687</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P27" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>54.98378696631089</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M29" t="n">
-        <v>54.98378696631089</v>
+        <v>60.29863175498012</v>
       </c>
       <c r="N29" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O29" t="n">
-        <v>38.66677900167424</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P29" t="n">
         <v>14.09544081448269</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="M30" t="n">
-        <v>49.95593416792635</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N30" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O30" t="n">
-        <v>29.23886660620531</v>
+        <v>65.10236512390517</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>54.98378696631089</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M32" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="N32" t="n">
-        <v>54.98378696631089</v>
+        <v>60.29863175498013</v>
       </c>
       <c r="O32" t="n">
-        <v>38.66677900167424</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="P32" t="n">
         <v>14.09544081448269</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="M33" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="N33" t="n">
-        <v>54.98378696631089</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O33" t="n">
         <v>29.23886660620531</v>
       </c>
       <c r="P33" t="n">
-        <v>33.14960012713212</v>
+        <v>58.34947580821809</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>45.35754004913036</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="M35" t="n">
-        <v>45.35754004913036</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="N35" t="n">
-        <v>45.35754004913036</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="O35" t="n">
-        <v>29.4294713538748</v>
+        <v>36.64287621927195</v>
       </c>
       <c r="P35" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L36" t="n">
-        <v>45.35754004913036</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="M36" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="N36" t="n">
-        <v>45.35754004913036</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="O36" t="n">
-        <v>43.52491216835742</v>
+        <v>29.70423820093762</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>24.30273091152371</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="M38" t="n">
-        <v>40.01493685131185</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="N38" t="n">
-        <v>40.01493685131185</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="O38" t="n">
-        <v>40.01493685131185</v>
+        <v>36.64287621927195</v>
       </c>
       <c r="P38" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>40.01493685131185</v>
+        <v>29.01657760306846</v>
       </c>
       <c r="M39" t="n">
-        <v>40.01493685131185</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N39" t="n">
-        <v>40.01493685131185</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="O39" t="n">
-        <v>38.39817172600632</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>52.87466722464953</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>10.60928074319444</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="M41" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="N41" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="O41" t="n">
-        <v>25.74492036010559</v>
+        <v>22.94942605094269</v>
       </c>
       <c r="P41" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>14.36404809015056</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="M42" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="N42" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="O42" t="n">
-        <v>25.74492036010559</v>
+        <v>37.04486686542537</v>
       </c>
       <c r="P42" t="n">
-        <v>10.34067346752652</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>10.60928074319444</v>
+        <v>22.9494260509427</v>
       </c>
       <c r="M44" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="N44" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="O44" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="P44" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>24.70472155767707</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M45" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="N45" t="n">
-        <v>25.74492036010559</v>
+        <v>38.60465073344326</v>
       </c>
       <c r="O45" t="n">
-        <v>25.74492036010559</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>32.04660290251272</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
